--- a/Table 2 Comparison of Causes of Death.xlsx
+++ b/Table 2 Comparison of Causes of Death.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\doi.org\doi.org 10.1001 jamanetworkopen.2025.46822 COVID-19 mRNA Vaccination and 4-Year All-Cause Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A93797-6656-458A-9014-C0F4445B6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4386FF7-E6F3-41A3-BBA4-898EAC50E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2 text" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>0                                         Pregnancy, childbirth, and the puerperium                  2                              4                             0.36 (0.21-0.60)                 0.41 (0.22-0.64)</t>
   </si>
   <si>
-    <t xml:space="preserve">P                                         Certain conditions originating in the perinatal period            0                              1                                                                         -  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q                                         Congenital malformations and chromosomal anomalies              10                            18                           0.51 (0.41-0.64)                 0.59 (0.47-0.78)  </t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>- X60-X84                                Including suicides and self-inflicted injuries                    229                                222                               0.93 (0.88-0.99)                       0.88 (0.83-0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P                                         Certain conditions originating in the perinatal period            0                              1                                                                         -                                                                          - </t>
   </si>
 </sst>
 </file>
@@ -466,14 +466,14 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -493,22 +493,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
@@ -568,17 +568,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
@@ -588,37 +588,37 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">

--- a/Table 2 Comparison of Causes of Death.xlsx
+++ b/Table 2 Comparison of Causes of Death.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\doi.org\doi.org 10.1001 jamanetworkopen.2025.46822 COVID-19 mRNA Vaccination and 4-Year All-Cause Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4386FF7-E6F3-41A3-BBA4-898EAC50E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DC288-F2D1-45E2-A810-5A51AD10563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2 text" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>E                                                    Endocrine, nutritional, and metabolic diseases               51                                   74                                  0.62 (0.56-0.70)                      0.73 (0.65-0.83)</t>
   </si>
   <si>
-    <t xml:space="preserve">F                                                    Mentaland behavioraldisorders                                  88                            135                         0.59 (0.54-0.64)                 0.65 (0.59-0.70)  </t>
-  </si>
-  <si>
     <t xml:space="preserve">G, H                                     Diseases of the nervous system and sensory organs                66                            109                         0.55 (0.50-0.60)                 0.62 (0.57-0.67)    </t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">P                                         Certain conditions originating in the perinatal period            0                              1                                                                         -                                                                          - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F                                                    Mental and behavioral disorders                                  88                            135                         0.59 (0.54-0.64)                 0.65 (0.59-0.70)  </t>
   </si>
 </sst>
 </file>
@@ -466,14 +466,14 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -493,22 +493,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
@@ -523,62 +523,62 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
@@ -588,37 +588,37 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
